--- a/example_budget.xlsx
+++ b/example_budget.xlsx
@@ -899,7 +899,7 @@
                 <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>100</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -926,7 +926,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>0.99</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1453,7 +1453,7 @@
                 <formatCode>0.00%</formatCode>
                 <ptCount val="10"/>
                 <pt idx="0">
-                  <v>0</v>
+                  <v>0.9901970492127934</v>
                 </pt>
                 <pt idx="1">
                   <v>0</v>
@@ -1480,7 +1480,7 @@
                   <v>0</v>
                 </pt>
                 <pt idx="9">
-                  <v>0</v>
+                  <v>0.009802950787206655</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2521,7 +2521,7 @@
   <dimension ref="A1:W74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2544,8 +2544,8 @@
     <col width="3.6640625" customWidth="1" style="15" min="17" max="17"/>
     <col width="10.83203125" customWidth="1" style="15" min="18" max="18"/>
     <col width="34.6640625" customWidth="1" style="15" min="19" max="19"/>
-    <col width="10.83203125" customWidth="1" style="15" min="20" max="42"/>
-    <col width="10.83203125" customWidth="1" style="15" min="43" max="16384"/>
+    <col width="10.83203125" customWidth="1" style="15" min="20" max="43"/>
+    <col width="10.83203125" customWidth="1" style="15" min="44" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" s="15">
@@ -2610,7 +2610,7 @@
         </is>
       </c>
       <c r="B2" s="29" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" s="16">
         <f>B2/B14</f>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="D2" s="20" t="n"/>
       <c r="E2" s="2" t="n">
-        <v>44713</v>
+        <v>44652</v>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
       <c r="G2" s="32" t="n"/>
       <c r="H2" s="32" t="n"/>
       <c r="I2" s="30" t="n">
-        <v>10706.7</v>
+        <v>5000</v>
       </c>
       <c r="K2" s="2" t="n"/>
       <c r="L2" s="3" t="n"/>
@@ -2658,19 +2658,19 @@
       </c>
       <c r="D3" s="20" t="n"/>
       <c r="E3" s="2" t="n">
-        <v>44713</v>
+        <v>44654</v>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>Apple Music ... category = cw</t>
+          <t>Culver's ... category = eo</t>
         </is>
       </c>
       <c r="G3" s="32" t="n"/>
       <c r="H3" s="32" t="n">
-        <v>0.99</v>
+        <v>34.5</v>
       </c>
       <c r="I3" t="n">
-        <v>10705.71</v>
+        <v>4965.5</v>
       </c>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="3" t="n"/>
@@ -2699,10 +2699,21 @@
         <v/>
       </c>
       <c r="D4" s="20" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="3" t="n"/>
+      <c r="E4" s="2" t="n">
+        <v>44661</v>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>Disc golf disc ... category = cw</t>
+        </is>
+      </c>
       <c r="G4" s="32" t="n"/>
-      <c r="H4" s="32" t="n"/>
+      <c r="H4" s="32" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4950.94</v>
+      </c>
       <c r="K4" s="2" t="n"/>
       <c r="L4" s="3" t="n"/>
       <c r="M4" s="32" t="n"/>
@@ -2730,10 +2741,21 @@
         <v/>
       </c>
       <c r="D5" s="20" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="32" t="n"/>
+      <c r="E5" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>My job ... category = in</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="n">
+        <v>240.37</v>
+      </c>
       <c r="H5" s="32" t="n"/>
+      <c r="I5" t="n">
+        <v>5191.309999999999</v>
+      </c>
       <c r="K5" s="2" t="n"/>
       <c r="L5" s="3" t="n"/>
       <c r="M5" s="32" t="n"/>
@@ -2754,7 +2776,7 @@
         </is>
       </c>
       <c r="B6" s="29" t="n">
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="C6" s="16">
         <f>B6/B14</f>
@@ -2909,7 +2931,7 @@
         </is>
       </c>
       <c r="B11" s="29" t="n">
-        <v>0.99</v>
+        <v>15.55</v>
       </c>
       <c r="C11" s="16">
         <f>B11/B14</f>
@@ -3092,7 +3114,7 @@
         </is>
       </c>
       <c r="B17" s="29" t="n">
-        <v>0</v>
+        <v>240.37</v>
       </c>
       <c r="C17" s="19">
         <f>B14/B17</f>
